--- a/datos/loan_data_2007_2014/LCDataDictionary.xlsx
+++ b/datos/loan_data_2007_2014/LCDataDictionary.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="307">
   <si>
     <t xml:space="preserve">LoanStatNew</t>
   </si>
@@ -964,9 +964,6 @@
     <t xml:space="preserve">variable</t>
   </si>
   <si>
-    <t xml:space="preserve">descripción</t>
-  </si>
-  <si>
     <t xml:space="preserve">total_rev_hi_lim</t>
   </si>
 </sst>
@@ -977,7 +974,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1010,6 +1007,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1078,11 +1082,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1097,18 +1097,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1127,20 +1115,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1257,1310 +1241,1276 @@
   </sheetPr>
   <dimension ref="A1:K154"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A133" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A145" activeCellId="0" sqref="A145"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="81" zoomScaleNormal="81" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.79296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="196.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="118.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="118.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="25"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" s="5" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+    <row r="2" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4"/>
-    </row>
-    <row r="3" s="5" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+    </row>
+    <row r="3" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4"/>
-    </row>
-    <row r="4" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
+    </row>
+    <row r="4" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="5"/>
-    </row>
-    <row r="5" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+    </row>
+    <row r="5" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="5"/>
-    </row>
-    <row r="6" s="5" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
+    </row>
+    <row r="6" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="4"/>
-    </row>
-    <row r="7" s="5" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="s">
+    </row>
+    <row r="7" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="4"/>
-    </row>
-    <row r="8" s="5" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="s">
+    </row>
+    <row r="8" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" s="5" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
+    </row>
+    <row r="9" s="3" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="4"/>
-    </row>
-    <row r="10" s="5" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
+    </row>
+    <row r="10" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="4"/>
-    </row>
-    <row r="11" s="4" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
+    </row>
+    <row r="11" s="3" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="5"/>
-    </row>
-    <row r="12" s="5" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
+    </row>
+    <row r="12" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="4"/>
-    </row>
-    <row r="13" s="5" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8" t="s">
+    </row>
+    <row r="13" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="4"/>
-    </row>
-    <row r="14" s="5" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="s">
+    </row>
+    <row r="14" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="4"/>
-    </row>
-    <row r="15" s="5" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="s">
+    </row>
+    <row r="15" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="10"/>
-    </row>
-    <row r="16" s="5" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="s">
+      <c r="C15" s="6"/>
+    </row>
+    <row r="16" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="10"/>
-    </row>
-    <row r="17" s="5" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="s">
+      <c r="C16" s="6"/>
+    </row>
+    <row r="17" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="4"/>
-    </row>
-    <row r="18" s="5" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6" t="s">
+    </row>
+    <row r="18" s="3" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="4"/>
-    </row>
-    <row r="19" s="5" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8" t="s">
+    </row>
+    <row r="19" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="4"/>
-    </row>
-    <row r="20" s="5" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="6" t="s">
+    </row>
+    <row r="20" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="4"/>
-    </row>
-    <row r="21" s="5" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="6" t="s">
+    </row>
+    <row r="21" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="4"/>
-    </row>
-    <row r="22" s="5" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="6" t="s">
+    </row>
+    <row r="22" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="4"/>
-    </row>
-    <row r="23" s="5" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="8" t="s">
+    </row>
+    <row r="23" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="4"/>
-    </row>
-    <row r="24" s="5" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="8" t="s">
+    </row>
+    <row r="24" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="4"/>
-    </row>
-    <row r="25" s="5" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6" t="s">
+    </row>
+    <row r="25" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="4"/>
-    </row>
-    <row r="26" s="5" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="6" t="s">
+    </row>
+    <row r="26" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="4"/>
-    </row>
-    <row r="27" s="5" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="6" t="s">
+    </row>
+    <row r="27" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="4"/>
-    </row>
-    <row r="28" s="5" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="6" t="s">
+    </row>
+    <row r="28" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="4"/>
-    </row>
-    <row r="29" s="5" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="6" t="s">
+    </row>
+    <row r="29" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="10"/>
-    </row>
-    <row r="30" s="5" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3" t="s">
+      <c r="C29" s="6"/>
+    </row>
+    <row r="30" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="10"/>
-    </row>
-    <row r="31" s="5" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="6" t="s">
+      <c r="C30" s="6"/>
+    </row>
+    <row r="31" s="3" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="4"/>
-    </row>
-    <row r="32" s="5" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="3" t="s">
+    </row>
+    <row r="32" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="4"/>
-    </row>
-    <row r="33" s="5" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="3" t="s">
+    </row>
+    <row r="33" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="4"/>
-    </row>
-    <row r="34" s="5" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="6" t="s">
+    </row>
+    <row r="34" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C34" s="4"/>
-    </row>
-    <row r="35" s="5" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="6" t="s">
+    </row>
+    <row r="35" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C35" s="4"/>
-    </row>
-    <row r="36" s="5" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="6" t="s">
+    </row>
+    <row r="36" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="4"/>
-    </row>
-    <row r="37" s="5" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="6" t="s">
+    </row>
+    <row r="37" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C37" s="4"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="12"/>
-    </row>
-    <row r="38" s="5" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="6" t="s">
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+    </row>
+    <row r="38" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C38" s="4"/>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D39" s="5"/>
+      <c r="D39" s="3"/>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D40" s="5"/>
+      <c r="D40" s="3"/>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D41" s="5"/>
+      <c r="D41" s="3"/>
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D42" s="5"/>
+      <c r="D42" s="3"/>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D43" s="5"/>
+      <c r="D43" s="3"/>
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="6" t="s">
+      <c r="A44" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D44" s="5"/>
+      <c r="D44" s="3"/>
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D45" s="5"/>
+      <c r="D45" s="3"/>
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="6" t="s">
+      <c r="A46" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="D46" s="5"/>
-      <c r="I46" s="11"/>
-      <c r="J46" s="12"/>
-      <c r="K46" s="12"/>
+      <c r="D46" s="3"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D47" s="5"/>
-      <c r="I47" s="11"/>
-      <c r="J47" s="12"/>
-      <c r="K47" s="12"/>
+      <c r="D47" s="3"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D48" s="5"/>
-      <c r="I48" s="13"/>
-      <c r="J48" s="12"/>
-      <c r="K48" s="12"/>
+      <c r="D48" s="3"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D49" s="5"/>
+      <c r="D49" s="3"/>
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D50" s="5"/>
+      <c r="D50" s="3"/>
     </row>
     <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B51" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D51" s="5"/>
+      <c r="D51" s="3"/>
     </row>
     <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="6" t="s">
+      <c r="A52" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="B52" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="D52" s="5"/>
+      <c r="D52" s="3"/>
     </row>
     <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="14" t="s">
+      <c r="A53" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D53" s="5"/>
+      <c r="D53" s="3"/>
     </row>
     <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="6" t="s">
+      <c r="A54" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="B54" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="D54" s="5"/>
+      <c r="D54" s="3"/>
     </row>
     <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D55" s="5"/>
+      <c r="D55" s="3"/>
     </row>
     <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="3" t="s">
+      <c r="A56" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="B56" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="D56" s="5"/>
+      <c r="D56" s="3"/>
     </row>
     <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="14" t="s">
+      <c r="A57" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B57" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D57" s="5"/>
+      <c r="D57" s="3"/>
     </row>
     <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="3" t="s">
+      <c r="A58" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B58" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="D58" s="5"/>
+      <c r="D58" s="3"/>
     </row>
     <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="B59" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="D59" s="5"/>
-    </row>
-    <row r="60" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="6" t="s">
+      <c r="D59" s="3"/>
+    </row>
+    <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="D60" s="5"/>
+      <c r="D60" s="3"/>
     </row>
     <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="3" t="s">
+      <c r="A61" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="B61" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="D61" s="5"/>
+      <c r="D61" s="3"/>
     </row>
     <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="3" t="s">
+      <c r="A62" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B62" s="6" t="s">
+      <c r="B62" s="4" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="3" t="s">
+      <c r="A63" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B63" s="6" t="s">
+      <c r="B63" s="4" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="3" t="s">
+      <c r="A64" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B64" s="4" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="3" t="s">
+      <c r="A65" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B65" s="6" t="s">
+      <c r="B65" s="4" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="3" t="s">
+      <c r="A66" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="B66" s="4" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="3" t="s">
+      <c r="A67" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B67" s="6" t="s">
+      <c r="B67" s="4" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="3" t="s">
+      <c r="A68" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="B68" s="4" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="3" t="s">
+      <c r="A69" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B69" s="6" t="s">
+      <c r="B69" s="4" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="3" t="s">
+      <c r="A70" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B70" s="6" t="s">
+      <c r="B70" s="4" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="3" t="s">
+      <c r="A71" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="B71" s="4" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="3" t="s">
+      <c r="A72" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B72" s="6" t="s">
+      <c r="B72" s="4" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="3" t="s">
+      <c r="A73" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B73" s="6" t="s">
+      <c r="B73" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="F73" s="1"/>
     </row>
     <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="3" t="s">
+      <c r="A74" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B74" s="6" t="s">
+      <c r="B74" s="4" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="6" t="s">
+      <c r="A75" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B75" s="7" t="s">
+      <c r="B75" s="5" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="3" t="s">
+      <c r="A76" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B76" s="14" t="s">
+      <c r="B76" s="2" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="3" t="s">
+      <c r="A77" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B77" s="2" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="3" t="s">
+      <c r="A78" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B78" s="2" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="3" t="s">
+      <c r="A79" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B79" s="2" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="3" t="s">
+      <c r="A80" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B80" s="2" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="3" t="s">
+      <c r="A81" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B81" s="2" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="6" t="s">
+      <c r="A82" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="B82" s="7" t="s">
+      <c r="B82" s="5" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="6" t="s">
+      <c r="A83" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="B83" s="7" t="s">
+      <c r="B83" s="5" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="3" t="s">
+      <c r="A84" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B84" s="6" t="s">
+      <c r="B84" s="4" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="3" t="s">
+      <c r="A85" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B85" s="6" t="s">
+      <c r="B85" s="4" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="6" t="s">
+      <c r="A86" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="B86" s="7" t="s">
+      <c r="B86" s="5" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="6" t="s">
+      <c r="A87" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="B87" s="7" t="s">
+      <c r="B87" s="5" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="3" t="s">
+      <c r="A88" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B88" s="6" t="s">
+      <c r="B88" s="4" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="6" t="s">
+      <c r="A89" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="B89" s="7" t="s">
+      <c r="B89" s="5" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="6" t="s">
+      <c r="A90" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="B90" s="9" t="s">
+      <c r="B90" s="5" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="8" t="s">
+      <c r="A91" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="B91" s="9" t="s">
+      <c r="B91" s="5" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="6" t="s">
+      <c r="A92" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="B92" s="7" t="s">
+      <c r="B92" s="5" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="6" t="s">
+      <c r="A93" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="B93" s="7" t="s">
+      <c r="B93" s="5" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="6" t="s">
+      <c r="A94" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B94" s="7" t="s">
+      <c r="B94" s="5" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="3" t="s">
+      <c r="A95" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B95" s="6" t="s">
+      <c r="B95" s="4" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="6" t="s">
+      <c r="A96" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="B96" s="7" t="s">
+      <c r="B96" s="5" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="6" t="s">
+      <c r="A97" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="B97" s="7" t="s">
+      <c r="B97" s="5" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="3" t="s">
+      <c r="A98" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="B98" s="2" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="3" t="s">
+      <c r="A99" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="B99" s="2" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="3" t="s">
+      <c r="A100" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B100" s="6" t="s">
+      <c r="B100" s="4" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="6" t="s">
+      <c r="A101" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="B101" s="7" t="s">
+      <c r="B101" s="5" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="3" t="s">
+      <c r="A102" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B102" s="6" t="s">
+      <c r="B102" s="4" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="3" t="s">
+      <c r="A103" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B103" s="3" t="s">
+      <c r="B103" s="2" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="3" t="s">
+      <c r="A104" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B104" s="6" t="s">
+      <c r="B104" s="4" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="3" t="s">
+      <c r="A105" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B105" s="3" t="s">
+      <c r="B105" s="2" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="3" t="s">
+      <c r="A106" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B106" s="6" t="s">
+      <c r="B106" s="4" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="6" t="s">
+      <c r="A107" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="B107" s="7" t="s">
+      <c r="B107" s="5" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="6" t="s">
+      <c r="A108" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="B108" s="7" t="s">
+      <c r="B108" s="5" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="6" t="s">
+      <c r="A109" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="B109" s="9" t="s">
+      <c r="B109" s="5" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="6" t="s">
+      <c r="A110" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="B110" s="9" t="s">
+      <c r="B110" s="5" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="6" t="s">
+      <c r="A111" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="B111" s="9" t="s">
+      <c r="B111" s="5" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="3" t="s">
+      <c r="A112" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B112" s="3" t="s">
+      <c r="B112" s="2" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="6" t="s">
+      <c r="A113" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="B113" s="9" t="s">
+      <c r="B113" s="5" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="8" t="s">
+      <c r="A114" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="B114" s="9" t="s">
+      <c r="B114" s="5" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="8" t="s">
+      <c r="A115" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="B115" s="8" t="s">
+      <c r="B115" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="3" t="s">
+      <c r="A116" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="B116" s="3" t="s">
+      <c r="B116" s="2" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="3" t="s">
+      <c r="A117" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="B117" s="3" t="s">
+      <c r="B117" s="2" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="3" t="s">
+      <c r="A118" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B118" s="3" t="s">
+      <c r="B118" s="2" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="3" t="s">
+      <c r="A119" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="B119" s="3" t="s">
+      <c r="B119" s="2" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="3" t="s">
+      <c r="A120" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="B120" s="3" t="s">
+      <c r="B120" s="2" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="3" t="s">
+      <c r="A121" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B121" s="3" t="s">
+      <c r="B121" s="2" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="3" t="s">
+      <c r="A122" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="B122" s="3" t="s">
+      <c r="B122" s="2" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="3" t="s">
+      <c r="A123" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="B123" s="3" t="s">
+      <c r="B123" s="2" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="3" t="s">
+      <c r="A124" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="B124" s="3" t="s">
+      <c r="B124" s="2" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="3" t="s">
+      <c r="A125" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="B125" s="3" t="s">
+      <c r="B125" s="2" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="3" t="s">
+      <c r="A126" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="B126" s="3" t="s">
+      <c r="B126" s="2" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="3" t="s">
+      <c r="A127" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="B127" s="3" t="s">
+      <c r="B127" s="2" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="3" t="s">
+      <c r="A128" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="B128" s="3" t="s">
+      <c r="B128" s="2" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="3" t="s">
+      <c r="A129" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="B129" s="3" t="s">
+      <c r="B129" s="2" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="3" t="s">
+      <c r="A130" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B130" s="3" t="s">
+      <c r="B130" s="2" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="3" t="s">
+      <c r="A131" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B131" s="3" t="s">
+      <c r="B131" s="2" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="3" t="s">
+      <c r="A132" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="B132" s="3" t="s">
+      <c r="B132" s="2" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="3" t="s">
+      <c r="A133" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="B133" s="3" t="s">
+      <c r="B133" s="2" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="3" t="s">
+      <c r="A134" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="B134" s="3" t="s">
+      <c r="B134" s="2" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="3" t="s">
+      <c r="A135" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="B135" s="3" t="s">
+      <c r="B135" s="2" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="3" t="s">
+      <c r="A136" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="B136" s="3" t="s">
+      <c r="B136" s="2" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="3" t="s">
+      <c r="A137" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B137" s="3" t="s">
+      <c r="B137" s="2" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="3" t="s">
+      <c r="A138" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="B138" s="3" t="s">
+      <c r="B138" s="2" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="3" t="s">
+      <c r="A139" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="B139" s="3" t="s">
+      <c r="B139" s="2" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="3" t="s">
+      <c r="A140" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="B140" s="3" t="s">
+      <c r="B140" s="2" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="3" t="s">
+      <c r="A141" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="B141" s="3" t="s">
+      <c r="B141" s="2" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="3" t="s">
+      <c r="A142" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B142" s="3" t="s">
+      <c r="B142" s="2" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="3" t="s">
+      <c r="A143" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B143" s="3" t="s">
+      <c r="B143" s="2" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="3" t="s">
+      <c r="A144" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="B144" s="3" t="s">
+      <c r="B144" s="2" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="3" t="s">
+      <c r="A145" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B145" s="3" t="s">
+      <c r="B145" s="2" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="3" t="s">
+      <c r="A146" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="B146" s="3" t="s">
+      <c r="B146" s="2" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="3" t="s">
+      <c r="A147" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="B147" s="3" t="s">
+      <c r="B147" s="2" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="3" t="s">
+      <c r="A148" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="B148" s="3" t="s">
+      <c r="B148" s="2" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="3" t="s">
+      <c r="A149" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="B149" s="3" t="s">
+      <c r="B149" s="2" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="3" t="s">
+      <c r="A150" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="B150" s="3" t="s">
+      <c r="B150" s="2" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="3" t="s">
+      <c r="A151" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="B151" s="3" t="s">
+      <c r="B151" s="2" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="3" t="s">
+      <c r="A152" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="B152" s="3" t="s">
+      <c r="B152" s="2" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B154" s="15" t="s">
+      <c r="B154" s="9" t="s">
         <v>304</v>
       </c>
     </row>
@@ -2582,24 +2532,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B44" activeCellId="0" sqref="B44"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="81" zoomScaleNormal="81" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B29" activeCellId="0" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="143.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="175.74"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>305</v>
       </c>
-      <c r="B1" s="0" t="s">
-        <v>306</v>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2712,283 +2662,189 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>86</v>
+        <v>176</v>
       </c>
       <c r="B14" s="0" t="str">
         <f aca="false">+VLOOKUP(A14,LoanStats!$A$1:$B$152,2)</f>
-        <v>Current status of the loan</v>
+        <v>A category provided by the borrower for the loan request. </v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>178</v>
+        <v>6</v>
       </c>
       <c r="B15" s="0" t="str">
         <f aca="false">+VLOOKUP(A15,LoanStats!$A$1:$B$152,2)</f>
-        <v>Indicates if a payment plan has been put in place for the loan</v>
+        <v>The state provided by the borrower in the loan application</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>176</v>
+        <v>34</v>
       </c>
       <c r="B16" s="0" t="str">
         <f aca="false">+VLOOKUP(A16,LoanStats!$A$1:$B$152,2)</f>
-        <v>A category provided by the borrower for the loan request. </v>
+        <v>A ratio calculated using the borrower’s total monthly debt payments on the total debt obligations, excluding mortgage and the requested LC loan, divided by the borrower’s self-reported monthly income.</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B17" s="0" t="str">
         <f aca="false">+VLOOKUP(A17,LoanStats!$A$1:$B$152,2)</f>
-        <v>The state provided by the borrower in the loan application</v>
+        <v>The number of 30+ days past-due incidences of delinquency in the borrower's credit file for the past 2 years</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="B18" s="0" t="str">
         <f aca="false">+VLOOKUP(A18,LoanStats!$A$1:$B$152,2)</f>
-        <v>A ratio calculated using the borrower’s total monthly debt payments on the total debt obligations, excluding mortgage and the requested LC loan, divided by the borrower’s self-reported monthly income.</v>
+        <v>The number of inquiries in past 6 months (excluding auto and mortgage inquiries)</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>28</v>
+        <v>148</v>
       </c>
       <c r="B19" s="0" t="str">
         <f aca="false">+VLOOKUP(A19,LoanStats!$A$1:$B$152,2)</f>
-        <v>The number of 30+ days past-due incidences of delinquency in the borrower's credit file for the past 2 years</v>
+        <v>The number of open credit lines in the borrower's credit file.</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>66</v>
+        <v>172</v>
       </c>
       <c r="B20" s="0" t="str">
         <f aca="false">+VLOOKUP(A20,LoanStats!$A$1:$B$152,2)</f>
-        <v>The number of inquiries in past 6 months (excluding auto and mortgage inquiries)</v>
+        <v>Number of derogatory public records</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>102</v>
+        <v>182</v>
       </c>
       <c r="B21" s="0" t="str">
         <f aca="false">+VLOOKUP(A21,LoanStats!$A$1:$B$152,2)</f>
-        <v>The number of months since the borrower's last delinquency.</v>
+        <v>Total credit revolving balance</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>106</v>
+        <v>184</v>
       </c>
       <c r="B22" s="0" t="str">
         <f aca="false">+VLOOKUP(A22,LoanStats!$A$1:$B$152,2)</f>
-        <v>The number of months since the last public record.</v>
+        <v>Revolving line utilization rate, or the amount of credit the borrower is using relative to all available revolving credit.</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>148</v>
+        <v>200</v>
       </c>
       <c r="B23" s="0" t="str">
         <f aca="false">+VLOOKUP(A23,LoanStats!$A$1:$B$152,2)</f>
-        <v>The number of open credit lines in the borrower's credit file.</v>
+        <v>The total number of credit lines currently in the borrower's credit file</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>172</v>
+        <v>60</v>
       </c>
       <c r="B24" s="0" t="str">
         <f aca="false">+VLOOKUP(A24,LoanStats!$A$1:$B$152,2)</f>
-        <v>Number of derogatory public records</v>
+        <v>The initial listing status of the loan. Possible values are – W, F</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>182</v>
+        <v>26</v>
       </c>
       <c r="B25" s="0" t="str">
         <f aca="false">+VLOOKUP(A25,LoanStats!$A$1:$B$152,2)</f>
-        <v>Total credit revolving balance</v>
+        <v>Number of collections in 12 months excluding medical collections</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>184</v>
+        <v>2</v>
       </c>
       <c r="B26" s="0" t="str">
         <f aca="false">+VLOOKUP(A26,LoanStats!$A$1:$B$152,2)</f>
-        <v>Revolving line utilization rate, or the amount of credit the borrower is using relative to all available revolving credit.</v>
+        <v>The number of accounts on which the borrower is now delinquent.</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B27" s="0" t="str">
         <f aca="false">+VLOOKUP(A27,LoanStats!$A$1:$B$152,2)</f>
-        <v>The total number of credit lines currently in the borrower's credit file</v>
+        <v>Total collection amounts ever owed</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>60</v>
+        <v>196</v>
       </c>
       <c r="B28" s="0" t="str">
         <f aca="false">+VLOOKUP(A28,LoanStats!$A$1:$B$152,2)</f>
-        <v>The initial listing status of the loan. Possible values are – W, F</v>
+        <v>Total current balance of all accounts</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>162</v>
+        <v>306</v>
       </c>
       <c r="B29" s="0" t="str">
         <f aca="false">+VLOOKUP(A29,LoanStats!$A$1:$B$152,2)</f>
-        <v>Remaining outstanding principal for total amount funded</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>164</v>
-      </c>
-      <c r="B30" s="0" t="str">
-        <f aca="false">+VLOOKUP(A30,LoanStats!$A$1:$B$152,2)</f>
-        <v>Remaining outstanding principal for portion of total amount funded by investors</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
-        <v>212</v>
-      </c>
-      <c r="B31" s="0" t="str">
-        <f aca="false">+VLOOKUP(A31,LoanStats!$A$1:$B$152,2)</f>
-        <v>Payments received to date for total amount funded</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="B32" s="0" t="str">
-        <f aca="false">+VLOOKUP(A32,LoanStats!$A$1:$B$152,2)</f>
-        <v>Payments received to date for portion of total amount funded by investors</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
-        <v>220</v>
-      </c>
-      <c r="B33" s="0" t="str">
-        <f aca="false">+VLOOKUP(A33,LoanStats!$A$1:$B$152,2)</f>
         <v>Principal received to date</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
-        <v>216</v>
-      </c>
-      <c r="B34" s="0" t="str">
-        <f aca="false">+VLOOKUP(A34,LoanStats!$A$1:$B$152,2)</f>
-        <v>Interest received to date</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
-        <v>218</v>
-      </c>
-      <c r="B35" s="0" t="str">
-        <f aca="false">+VLOOKUP(A35,LoanStats!$A$1:$B$152,2)</f>
-        <v>Late fees received to date</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="B36" s="0" t="str">
-        <f aca="false">+VLOOKUP(A36,LoanStats!$A$1:$B$152,2)</f>
-        <v>post charge off gross recovery</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="B37" s="0" t="str">
-        <f aca="false">+VLOOKUP(A37,LoanStats!$A$1:$B$152,2)</f>
-        <v>post charge off collection fee</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="B38" s="0" t="str">
-        <f aca="false">+VLOOKUP(A38,LoanStats!$A$1:$B$152,2)</f>
-        <v>Last total payment amount received</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B39" s="0" t="str">
-        <f aca="false">+VLOOKUP(A39,LoanStats!$A$1:$B$152,2)</f>
-        <v>Number of collections in 12 months excluding medical collections</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="B40" s="0" t="str">
-        <f aca="false">+VLOOKUP(A40,LoanStats!$A$1:$B$152,2)</f>
-        <v>Months since most recent 90-day or worse rating</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B41" s="0" t="str">
-        <f aca="false">+VLOOKUP(A41,LoanStats!$A$1:$B$152,2)</f>
-        <v>The number of accounts on which the borrower is now delinquent.</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
-        <v>194</v>
-      </c>
-      <c r="B42" s="0" t="str">
-        <f aca="false">+VLOOKUP(A42,LoanStats!$A$1:$B$152,2)</f>
-        <v>Total collection amounts ever owed</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="B43" s="0" t="str">
-        <f aca="false">+VLOOKUP(A43,LoanStats!$A$1:$B$152,2)</f>
-        <v>Total current balance of all accounts</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="B44" s="0" t="str">
-        <f aca="false">+VLOOKUP(A44,LoanStats!$A$1:$B$152,2)</f>
-        <v>Principal received to date</v>
-      </c>
-    </row>
+    <row r="1048536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/datos/loan_data_2007_2014/LCDataDictionary.xlsx
+++ b/datos/loan_data_2007_2014/LCDataDictionary.xlsx
@@ -9,10 +9,12 @@
   </bookViews>
   <sheets>
     <sheet name="LoanStats" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="limpieza previa" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="variables" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="codigos" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">LoanStats!$A$1:$B$129</definedName>
+    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">variables!$A$1:$D$75</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="320">
   <si>
     <t xml:space="preserve">LoanStatNew</t>
   </si>
@@ -964,17 +966,57 @@
     <t xml:space="preserve">variable</t>
   </si>
   <si>
+    <t xml:space="preserve">tipo de dato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">um</t>
+  </si>
+  <si>
+    <t xml:space="preserve">continuo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">discreta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">target</t>
+  </si>
+  <si>
     <t xml:space="preserve">total_rev_hi_lim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verification_status_joint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">open_il_6m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buenos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unarias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inutiles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no conocido al momento de la solicitud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nullos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1019,8 +1061,16 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1031,6 +1081,42 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF254061"/>
         <bgColor rgb="FF333399"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF81D41A"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF8000"/>
+        <bgColor rgb="FFFF6600"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6B5E9B"/>
+        <bgColor rgb="FF808080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF993300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF729FCF"/>
+        <bgColor rgb="FF969696"/>
       </patternFill>
     </fill>
   </fills>
@@ -1082,7 +1168,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1123,7 +1209,67 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1136,7 +1282,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="10">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1166,6 +1312,48 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF6B5E9B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF729FCF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF81D41A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF8000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <colors>
     <indexedColors>
@@ -1185,7 +1373,7 @@
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFC0C0C0"/>
       <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF729FCF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCCFFFF"/>
@@ -1211,11 +1399,11 @@
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FF81D41A"/>
       <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF8000"/>
       <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF6B5E9B"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
@@ -1231,6 +1419,10 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
@@ -2532,319 +2724,1097 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B1048576"/>
+  <dimension ref="A1:D75"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="81" zoomScaleNormal="81" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B29" activeCellId="0" sqref="B29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="81" zoomScaleNormal="81" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B64" activeCellId="0" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="175.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.28"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="10" t="s">
         <v>305</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="10" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="12" t="str">
+        <f aca="false">+VLOOKUP(A2,LoanStats!$A$1:$B$152,2)</f>
+        <v>A unique LC assigned ID for the loan listing.</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <f aca="false">+IF(ISBLANK(C2),0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="13" t="str">
+        <f aca="false">+VLOOKUP(A3,LoanStats!$A$1:$B$152,2)</f>
+        <v>A unique LC assigned Id for the borrower member.</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <f aca="false">+IF(ISBLANK(C3),0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="0" t="str">
-        <f aca="false">+VLOOKUP(A2,LoanStats!$A$1:$B$152,2)</f>
+      <c r="B4" s="12" t="str">
+        <f aca="false">+VLOOKUP(A4,LoanStats!$A$1:$B$152,2)</f>
         <v>The listed amount of the loan applied for by the borrower. If at some point in time, the credit department reduces the loan amount, then it will be reflected in this value.</v>
       </c>
+      <c r="C4" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <f aca="false">+IF(ISBLANK(C4),0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="12" t="str">
+        <f aca="false">+VLOOKUP(A5,LoanStats!$A$1:$B$152,2)</f>
+        <v>The total amount committed to that loan at that point in time.</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <f aca="false">+IF(ISBLANK(C5),0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="12" t="str">
+        <f aca="false">+VLOOKUP(A6,LoanStats!$A$1:$B$152,2)</f>
+        <v>The total amount committed by investors for that loan at that point in time.</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <f aca="false">+IF(ISBLANK(C6),0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="B7" s="12" t="str">
+        <f aca="false">+VLOOKUP(A7,LoanStats!$A$1:$B$152,2)</f>
+        <v>The number of payments on the loan. Values are in months and can be either 36 or 60.</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <f aca="false">+IF(ISBLANK(C7),0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="12" t="str">
+        <f aca="false">+VLOOKUP(A8,LoanStats!$A$1:$B$152,2)</f>
+        <v>Interest Rate on the loan</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <f aca="false">+IF(ISBLANK(C8),0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="12" t="str">
+        <f aca="false">+VLOOKUP(A9,LoanStats!$A$1:$B$152,2)</f>
+        <v>The monthly payment owed by the borrower if the loan originates.</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <f aca="false">+IF(ISBLANK(C9),0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="12" t="str">
+        <f aca="false">+VLOOKUP(A10,LoanStats!$A$1:$B$152,2)</f>
+        <v>LC assigned loan grade</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <f aca="false">+IF(ISBLANK(C10),0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="B11" s="12" t="str">
+        <f aca="false">+VLOOKUP(A11,LoanStats!$A$1:$B$152,2)</f>
+        <v>LC assigned loan subgrade</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <f aca="false">+IF(ISBLANK(C11),0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="13" t="str">
+        <f aca="false">+VLOOKUP(A12,LoanStats!$A$1:$B$152,2)</f>
+        <v>The job title supplied by the Borrower when applying for the loan.*</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <f aca="false">+IF(ISBLANK(C12),0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="12" t="str">
+        <f aca="false">+VLOOKUP(A13,LoanStats!$A$1:$B$152,2)</f>
+        <v>Employment length in years. Possible values are between 0 and 10 where 0 means less than one year and 10 means ten or more years.</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <f aca="false">+IF(ISBLANK(C13),0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="12" t="str">
+        <f aca="false">+VLOOKUP(A14,LoanStats!$A$1:$B$152,2)</f>
+        <v>The home ownership status provided by the borrower during registration or obtained from the credit report. Our values are: RENT, OWN, MORTGAGE, OTHER</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <f aca="false">+IF(ISBLANK(C14),0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="12" t="str">
+        <f aca="false">+VLOOKUP(A15,LoanStats!$A$1:$B$152,2)</f>
+        <v>The self-reported annual income provided by the borrower during registration.</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <f aca="false">+IF(ISBLANK(C15),0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="B16" s="12" t="str">
+        <f aca="false">+VLOOKUP(A16,LoanStats!$A$1:$B$152,2)</f>
+        <v>Indicates if income was verified by LC, not verified, or if the income source was verified</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <f aca="false">+IF(ISBLANK(C16),0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="12" t="str">
+        <f aca="false">+VLOOKUP(A17,LoanStats!$A$1:$B$152,2)</f>
+        <v>The month which the loan was funded</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <f aca="false">+IF(ISBLANK(C17),0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B18" s="14" t="str">
+        <f aca="false">+VLOOKUP(A18,LoanStats!$A$1:$B$152,2)</f>
+        <v>Current status of the loan</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <f aca="false">+IF(ISBLANK(C18),0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="B19" s="12" t="str">
+        <f aca="false">+VLOOKUP(A19,LoanStats!$A$1:$B$152,2)</f>
+        <v>Indicates if a payment plan has been put in place for the loan</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <f aca="false">+IF(ISBLANK(C19),0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="B20" s="13" t="str">
+        <f aca="false">+VLOOKUP(A20,LoanStats!$A$1:$B$152,2)</f>
+        <v>URL for the LC page with listing data.</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <f aca="false">+IF(ISBLANK(C20),0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="B21" s="12" t="str">
+        <f aca="false">+VLOOKUP(A21,LoanStats!$A$1:$B$152,2)</f>
+        <v>A category provided by the borrower for the loan request.</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <f aca="false">+IF(ISBLANK(C21),0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="B22" s="13" t="str">
+        <f aca="false">+VLOOKUP(A22,LoanStats!$A$1:$B$152,2)</f>
+        <v>The loan title provided by the borrower</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <f aca="false">+IF(ISBLANK(C22),0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="B23" s="13" t="str">
+        <f aca="false">+VLOOKUP(A23,LoanStats!$A$1:$B$152,2)</f>
+        <v>The first 3 numbers of the zip code provided by the borrower in the loan application.</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <f aca="false">+IF(ISBLANK(C23),0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="12" t="str">
+        <f aca="false">+VLOOKUP(A24,LoanStats!$A$1:$B$152,2)</f>
+        <v>The state provided by the borrower in the loan application</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <f aca="false">+IF(ISBLANK(C24),0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="12" t="str">
+        <f aca="false">+VLOOKUP(A25,LoanStats!$A$1:$B$152,2)</f>
+        <v>A ratio calculated using the borrower’s total monthly debt payments on the total debt obligations, excluding mortgage and the requested LC loan, divided by the borrower’s self-reported monthly income.</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <f aca="false">+IF(ISBLANK(C25),0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="12" t="str">
+        <f aca="false">+VLOOKUP(A26,LoanStats!$A$1:$B$152,2)</f>
+        <v>The number of 30+ days past-due incidences of delinquency in the borrower's credit file for the past 2 years</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <f aca="false">+IF(ISBLANK(C26),0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="12" t="str">
+        <f aca="false">+VLOOKUP(A27,LoanStats!$A$1:$B$152,2)</f>
+        <v>The month the borrower's earliest reported credit line was opened</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <f aca="false">+IF(ISBLANK(C27),0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" s="12" t="str">
+        <f aca="false">+VLOOKUP(A28,LoanStats!$A$1:$B$152,2)</f>
+        <v>The number of inquiries in past 6 months (excluding auto and mortgage inquiries)</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <f aca="false">+IF(ISBLANK(C28),0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="B29" s="12" t="str">
+        <f aca="false">+VLOOKUP(A29,LoanStats!$A$1:$B$152,2)</f>
+        <v>The number of open credit lines in the borrower's credit file.</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <f aca="false">+IF(ISBLANK(C29),0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="B30" s="12" t="str">
+        <f aca="false">+VLOOKUP(A30,LoanStats!$A$1:$B$152,2)</f>
+        <v>Number of derogatory public records</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <f aca="false">+IF(ISBLANK(C30),0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="B31" s="12" t="str">
+        <f aca="false">+VLOOKUP(A31,LoanStats!$A$1:$B$152,2)</f>
+        <v>Total credit revolving balance</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <f aca="false">+IF(ISBLANK(C31),0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="B32" s="12" t="str">
+        <f aca="false">+VLOOKUP(A32,LoanStats!$A$1:$B$152,2)</f>
+        <v>Revolving line utilization rate, or the amount of credit the borrower is using relative to all available revolving credit.</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <f aca="false">+IF(ISBLANK(C32),0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="B33" s="12" t="str">
+        <f aca="false">+VLOOKUP(A33,LoanStats!$A$1:$B$152,2)</f>
+        <v>The total number of credit lines currently in the borrower's credit file</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <f aca="false">+IF(ISBLANK(C33),0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" s="12" t="str">
+        <f aca="false">+VLOOKUP(A34,LoanStats!$A$1:$B$152,2)</f>
+        <v>The initial listing status of the loan. Possible values are – W, F</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <f aca="false">+IF(ISBLANK(C34),0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="B35" s="15" t="str">
+        <f aca="false">+VLOOKUP(A35,LoanStats!$A$1:$B$152,2)</f>
+        <v>Remaining outstanding principal for total amount funded</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <f aca="false">+IF(ISBLANK(C35),0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="B36" s="15" t="str">
+        <f aca="false">+VLOOKUP(A36,LoanStats!$A$1:$B$152,2)</f>
+        <v>Remaining outstanding principal for portion of total amount funded by investors</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <f aca="false">+IF(ISBLANK(C36),0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="B37" s="15" t="str">
+        <f aca="false">+VLOOKUP(A37,LoanStats!$A$1:$B$152,2)</f>
+        <v>Payments received to date for total amount funded</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <f aca="false">+IF(ISBLANK(C37),0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="B38" s="15" t="str">
+        <f aca="false">+VLOOKUP(A38,LoanStats!$A$1:$B$152,2)</f>
+        <v>Payments received to date for portion of total amount funded by investors</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="B39" s="15" t="str">
+        <f aca="false">+VLOOKUP(A39,LoanStats!$A$1:$B$152,2)</f>
+        <v>Principal received to date</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <f aca="false">+IF(ISBLANK(C39),0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="B40" s="15" t="str">
+        <f aca="false">+VLOOKUP(A40,LoanStats!$A$1:$B$152,2)</f>
+        <v>Interest received to date</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <f aca="false">+IF(ISBLANK(C40),0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="B41" s="15" t="str">
+        <f aca="false">+VLOOKUP(A41,LoanStats!$A$1:$B$152,2)</f>
+        <v>Late fees received to date</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <f aca="false">+IF(ISBLANK(C41),0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="B42" s="15" t="str">
+        <f aca="false">+VLOOKUP(A42,LoanStats!$A$1:$B$152,2)</f>
+        <v>post charge off gross recovery</v>
+      </c>
+      <c r="D42" s="0" t="n">
+        <f aca="false">+IF(ISBLANK(C42),0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B43" s="15" t="str">
+        <f aca="false">+VLOOKUP(A43,LoanStats!$A$1:$B$152,2)</f>
+        <v>post charge off collection fee</v>
+      </c>
+      <c r="D43" s="0" t="n">
+        <f aca="false">+IF(ISBLANK(C43),0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B44" s="15" t="str">
+        <f aca="false">+VLOOKUP(A44,LoanStats!$A$1:$B$152,2)</f>
+        <v>Last month payment was received</v>
+      </c>
+      <c r="D44" s="0" t="n">
+        <f aca="false">+IF(ISBLANK(C44),0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B45" s="15" t="str">
+        <f aca="false">+VLOOKUP(A45,LoanStats!$A$1:$B$152,2)</f>
+        <v>Last total payment amount received</v>
+      </c>
+      <c r="D45" s="0" t="n">
+        <f aca="false">+IF(ISBLANK(C45),0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B46" s="13" t="str">
+        <f aca="false">+VLOOKUP(A46,LoanStats!$A$1:$B$152,2)</f>
+        <v>Next scheduled payment date</v>
+      </c>
+      <c r="D46" s="0" t="n">
+        <f aca="false">+IF(ISBLANK(C46),0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B47" s="12" t="str">
+        <f aca="false">+VLOOKUP(A47,LoanStats!$A$1:$B$152,2)</f>
+        <v>The most recent month LC pulled credit for this loan</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="D47" s="0" t="n">
+        <f aca="false">+IF(ISBLANK(C47),0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B48" s="12" t="str">
+        <f aca="false">+VLOOKUP(A48,LoanStats!$A$1:$B$152,2)</f>
+        <v>Number of collections in 12 months excluding medical collections</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="D48" s="0" t="n">
+        <f aca="false">+IF(ISBLANK(C48),0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B49" s="17" t="str">
+        <f aca="false">+VLOOKUP(A49,LoanStats!$A$1:$B$152,2)</f>
+        <v>publicly available policy_code=1
+new products not publicly available policy_code=2</v>
+      </c>
+      <c r="D49" s="0" t="n">
+        <f aca="false">+IF(ISBLANK(C49),0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B50" s="16" t="str">
+        <f aca="false">+VLOOKUP(A50,LoanStats!$A$1:$B$152,2)</f>
+        <v>Indicates whether the loan is an individual application or a joint application with two co-borrowers</v>
+      </c>
+      <c r="D50" s="0" t="n">
+        <f aca="false">+IF(ISBLANK(C50),0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B51" s="12" t="str">
+        <f aca="false">+VLOOKUP(A51,LoanStats!$A$1:$B$152,2)</f>
+        <v>The number of accounts on which the borrower is now delinquent.</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="D51" s="0" t="n">
+        <f aca="false">+IF(ISBLANK(C51),0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="B52" s="12" t="str">
+        <f aca="false">+VLOOKUP(A52,LoanStats!$A$1:$B$152,2)</f>
+        <v>Total collection amounts ever owed</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="D52" s="0" t="n">
+        <f aca="false">+IF(ISBLANK(C52),0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="B53" s="12" t="str">
+        <f aca="false">+VLOOKUP(A53,LoanStats!$A$1:$B$152,2)</f>
+        <v>Total current balance of all accounts</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="D53" s="0" t="n">
+        <f aca="false">+IF(ISBLANK(C53),0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="B54" s="12" t="str">
+        <f aca="false">+VLOOKUP(A54,LoanStats!$A$1:$B$152,2)</f>
+        <v>Principal received to date</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="D54" s="0" t="n">
+        <f aca="false">+IF(ISBLANK(C54),0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B55" s="13" t="str">
+        <f aca="false">+VLOOKUP(A55,LoanStats!$A$1:$B$152,2)</f>
+        <v>Loan description provided by the borrower</v>
+      </c>
+      <c r="D55" s="0" t="n">
+        <f aca="false">+IF(ISBLANK(C55),0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B56" s="12" t="str">
+        <f aca="false">+VLOOKUP(A56,LoanStats!$A$1:$B$152,2)</f>
+        <v>The number of months since the borrower's last delinquency.</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="D56" s="0" t="n">
+        <f aca="false">+IF(ISBLANK(C56),0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B57" s="12" t="str">
+        <f aca="false">+VLOOKUP(A57,LoanStats!$A$1:$B$152,2)</f>
+        <v>The number of months since the last public record.</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="D57" s="0" t="n">
+        <f aca="false">+IF(ISBLANK(C57),0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="B58" s="12" t="str">
+        <f aca="false">+VLOOKUP(A58,LoanStats!$A$1:$B$152,2)</f>
+        <v>Months since most recent 90-day or worse rating</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="D58" s="0" t="n">
+        <f aca="false">+IF(ISBLANK(C58),0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B59" s="18" t="str">
+        <f aca="false">+VLOOKUP(A59,LoanStats!$A$1:$B$152,2)</f>
+        <v>The combined self-reported annual income provided by the co-borrowers during registration</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B60" s="18" t="str">
+        <f aca="false">+VLOOKUP(A60,LoanStats!$A$1:$B$152,2)</f>
+        <v>A ratio calculated using the co-borrowers' total monthly payments on the total debt obligations, excluding mortgages and the requested LC loan, divided by the co-borrowers' combined self-reported monthly income</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="B61" s="18" t="str">
+        <f aca="false">+VLOOKUP(A61,LoanStats!$A$1:$B$152,2)</f>
+        <v>Indicates if income was verified by LC, not verified, or if the income source was verified</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="B62" s="18" t="str">
+        <f aca="false">+VLOOKUP(A62,LoanStats!$A$1:$B$152,2)</f>
+        <v>Number of open trades in last 6 months</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="B63" s="18" t="str">
+        <f aca="false">+VLOOKUP(A63,LoanStats!$A$1:$B$152,2)</f>
+        <v>Number of currently active installment trades</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="B64" s="18" t="str">
+        <f aca="false">+VLOOKUP(A64,LoanStats!$A$1:$B$152,2)</f>
+        <v>Number of installment accounts opened in past 12 months</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="B65" s="18" t="str">
+        <f aca="false">+VLOOKUP(A65,LoanStats!$A$1:$B$152,2)</f>
+        <v>Number of installment accounts opened in past 24 months</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="B66" s="18" t="str">
+        <f aca="false">+VLOOKUP(A66,LoanStats!$A$1:$B$152,2)</f>
+        <v>Months since most recent installment accounts opened</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="B67" s="18" t="str">
+        <f aca="false">+VLOOKUP(A67,LoanStats!$A$1:$B$152,2)</f>
+        <v>Total current balance of all installment accounts</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B68" s="18" t="str">
+        <f aca="false">+VLOOKUP(A68,LoanStats!$A$1:$B$152,2)</f>
+        <v>Ratio of total current balance to high credit/credit limit on all install acct</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="B69" s="18" t="str">
+        <f aca="false">+VLOOKUP(A69,LoanStats!$A$1:$B$152,2)</f>
+        <v>Number of revolving trades opened in past 12 months</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="B70" s="18" t="str">
+        <f aca="false">+VLOOKUP(A70,LoanStats!$A$1:$B$152,2)</f>
+        <v>Number of revolving trades opened in past 24 months</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="B71" s="18" t="str">
+        <f aca="false">+VLOOKUP(A71,LoanStats!$A$1:$B$152,2)</f>
+        <v>Maximum current balance owed on all revolving accounts</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B72" s="18" t="str">
+        <f aca="false">+VLOOKUP(A72,LoanStats!$A$1:$B$152,2)</f>
+        <v>Balance to credit limit on all trades</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B73" s="18" t="str">
+        <f aca="false">+VLOOKUP(A73,LoanStats!$A$1:$B$152,2)</f>
+        <v>Number of personal finance inquiries</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="B74" s="18" t="str">
+        <f aca="false">+VLOOKUP(A74,LoanStats!$A$1:$B$152,2)</f>
+        <v>Number of finance trades</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B75" s="18" t="str">
+        <f aca="false">+VLOOKUP(A75,LoanStats!$A$1:$B$152,2)</f>
+        <v>Number of credit inquiries in past 12 months</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D75"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;KffffffPágina &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A8"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="81" zoomScaleNormal="81" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.75"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="19" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="20" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="0" t="str">
-        <f aca="false">+VLOOKUP(A3,LoanStats!$A$1:$B$152,2)</f>
-        <v>The total amount committed to that loan at that point in time.</v>
+      <c r="A3" s="21" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="0" t="str">
-        <f aca="false">+VLOOKUP(A4,LoanStats!$A$1:$B$152,2)</f>
-        <v>The total amount committed by investors for that loan at that point in time.</v>
+      <c r="A4" s="22" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="B5" s="0" t="str">
-        <f aca="false">+VLOOKUP(A5,LoanStats!$A$1:$B$152,2)</f>
-        <v>The number of payments on the loan. Values are in months and can be either 36 or 60.</v>
+      <c r="A5" s="23" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6" s="0" t="str">
-        <f aca="false">+VLOOKUP(A6,LoanStats!$A$1:$B$152,2)</f>
-        <v>Interest Rate on the loan</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="B7" s="0" t="str">
-        <f aca="false">+VLOOKUP(A7,LoanStats!$A$1:$B$152,2)</f>
-        <v>The monthly payment owed by the borrower if the loan originates.</v>
+      <c r="A6" s="24" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="B8" s="0" t="str">
-        <f aca="false">+VLOOKUP(A8,LoanStats!$A$1:$B$152,2)</f>
-        <v>LC assigned loan grade</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>186</v>
-      </c>
-      <c r="B9" s="0" t="str">
-        <f aca="false">+VLOOKUP(A9,LoanStats!$A$1:$B$152,2)</f>
-        <v>LC assigned loan subgrade</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="0" t="str">
-        <f aca="false">+VLOOKUP(A10,LoanStats!$A$1:$B$152,2)</f>
-        <v>Employment length in years. Possible values are between 0 and 10 where 0 means less than one year and 10 means ten or more years. </v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" s="0" t="str">
-        <f aca="false">+VLOOKUP(A11,LoanStats!$A$1:$B$152,2)</f>
-        <v>The home ownership status provided by the borrower during registration or obtained from the credit report. Our values are: RENT, OWN, MORTGAGE, OTHER</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="0" t="str">
-        <f aca="false">+VLOOKUP(A12,LoanStats!$A$1:$B$152,2)</f>
-        <v>The self-reported annual income provided by the borrower during registration.</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>226</v>
-      </c>
-      <c r="B13" s="0" t="str">
-        <f aca="false">+VLOOKUP(A13,LoanStats!$A$1:$B$152,2)</f>
-        <v>Indicates if income was verified by LC, not verified, or if the income source was verified</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="B14" s="0" t="str">
-        <f aca="false">+VLOOKUP(A14,LoanStats!$A$1:$B$152,2)</f>
-        <v>A category provided by the borrower for the loan request. </v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="0" t="str">
-        <f aca="false">+VLOOKUP(A15,LoanStats!$A$1:$B$152,2)</f>
-        <v>The state provided by the borrower in the loan application</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="0" t="str">
-        <f aca="false">+VLOOKUP(A16,LoanStats!$A$1:$B$152,2)</f>
-        <v>A ratio calculated using the borrower’s total monthly debt payments on the total debt obligations, excluding mortgage and the requested LC loan, divided by the borrower’s self-reported monthly income.</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="0" t="str">
-        <f aca="false">+VLOOKUP(A17,LoanStats!$A$1:$B$152,2)</f>
-        <v>The number of 30+ days past-due incidences of delinquency in the borrower's credit file for the past 2 years</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="B18" s="0" t="str">
-        <f aca="false">+VLOOKUP(A18,LoanStats!$A$1:$B$152,2)</f>
-        <v>The number of inquiries in past 6 months (excluding auto and mortgage inquiries)</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="B19" s="0" t="str">
-        <f aca="false">+VLOOKUP(A19,LoanStats!$A$1:$B$152,2)</f>
-        <v>The number of open credit lines in the borrower's credit file.</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="B20" s="0" t="str">
-        <f aca="false">+VLOOKUP(A20,LoanStats!$A$1:$B$152,2)</f>
-        <v>Number of derogatory public records</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="B21" s="0" t="str">
-        <f aca="false">+VLOOKUP(A21,LoanStats!$A$1:$B$152,2)</f>
-        <v>Total credit revolving balance</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="B22" s="0" t="str">
-        <f aca="false">+VLOOKUP(A22,LoanStats!$A$1:$B$152,2)</f>
-        <v>Revolving line utilization rate, or the amount of credit the borrower is using relative to all available revolving credit.</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>200</v>
-      </c>
-      <c r="B23" s="0" t="str">
-        <f aca="false">+VLOOKUP(A23,LoanStats!$A$1:$B$152,2)</f>
-        <v>The total number of credit lines currently in the borrower's credit file</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="B24" s="0" t="str">
-        <f aca="false">+VLOOKUP(A24,LoanStats!$A$1:$B$152,2)</f>
-        <v>The initial listing status of the loan. Possible values are – W, F</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="0" t="str">
-        <f aca="false">+VLOOKUP(A25,LoanStats!$A$1:$B$152,2)</f>
-        <v>Number of collections in 12 months excluding medical collections</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B26" s="0" t="str">
-        <f aca="false">+VLOOKUP(A26,LoanStats!$A$1:$B$152,2)</f>
-        <v>The number of accounts on which the borrower is now delinquent.</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>194</v>
-      </c>
-      <c r="B27" s="0" t="str">
-        <f aca="false">+VLOOKUP(A27,LoanStats!$A$1:$B$152,2)</f>
-        <v>Total collection amounts ever owed</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="B28" s="0" t="str">
-        <f aca="false">+VLOOKUP(A28,LoanStats!$A$1:$B$152,2)</f>
-        <v>Total current balance of all accounts</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>306</v>
-      </c>
-      <c r="B29" s="0" t="str">
-        <f aca="false">+VLOOKUP(A29,LoanStats!$A$1:$B$152,2)</f>
-        <v>Principal received to date</v>
-      </c>
-    </row>
-    <row r="1048536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="A8" s="25"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
